--- a/data/trans_camb/P16A12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,39; 1,06</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 0,69</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 0,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 1,89</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 1,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 0,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 0,51</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>107,93%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12,14%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>445,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,88%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 2,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 0,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 1,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 2,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 0,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 0,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 1,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 0,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 0,72</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>535,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>291,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>404,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -1022,22 +1022,22 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-50,82; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,8; 2085,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; -0,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 0,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 1,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 2,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 1,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 0,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 0,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 0,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 1,01</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,32%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,5; 15,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,53; 87,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,53; 189,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,4; 482,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,91; 289,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,63; 228,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,39; 75,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,77; 100,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,03; 121,55</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 1,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 3,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 3,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 2,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 1,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 1,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 1,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 2,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 1,98</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,7%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,34%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,77%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,42; 50,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,87; 123,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,32; 131,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,11; 98,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,84; 93,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,75; 57,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,53; 43,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,43; 73,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,93; 65,24</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,44</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,01; 3,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 5,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,74; 4,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 5,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 5,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,31; -0,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 3,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 4,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 0,95</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,01%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,04%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,81; 41,12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,75; 54,45</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,43; 49,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,51; 68,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,7; 70,44</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,52; -3,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,42; 38,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,21; 46,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,02; 10,82</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,05; 14,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,16; 15,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 8,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,65; 11,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 8,44</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,22; 3,94</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,34; 11,52</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,29; 9,87</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 4,75</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,79%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,18%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,24; 84,18</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,74; 86,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 49,93</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,8; 62,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,47; 46,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,47; 20,33</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,18; 62,07</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,07; 54,76</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,32; 25,17</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 2,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 3,88</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 4,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 3,66</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 3,17</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 2,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 2,92</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 3,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 2,99</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,81%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,63%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,59%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,32%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,85; 56,89</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,48; 77,15</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,43; 86,11</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,89; 66,88</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,87; 56,4</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 40,29</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,11; 53,55</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,47; 57,97</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,63; 55,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 0,51</t>
+          <t>-0,2; 0,53</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45,88%</t>
+          <t>49,7%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,74</t>
+          <t>-0,49; 1,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,37</t>
+          <t>-0,87; 0,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,72</t>
+          <t>-0,45; 0,78</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>75,6%</t>
+          <t>88,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-45,2%</t>
+          <t>-51,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,88</t>
+          <t>-1,27; 1,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,01</t>
+          <t>-0,81; 0,98</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>8,64%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,53; 189,48</t>
+          <t>-57,01; 178,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,63; 228,94</t>
+          <t>-66,82; 229,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-46,03; 121,55</t>
+          <t>-46,56; 121,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,99</t>
+          <t>-3,64; 2,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,21</t>
+          <t>-2,49; 1,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,98</t>
+          <t>-2,31; 1,49</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-12,7%</t>
+          <t>-15,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>-1,98%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 131,68</t>
+          <t>-64,24; 84,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,75; 57,72</t>
+          <t>-50,98; 53,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 65,24</t>
+          <t>-46,19; 46,87</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,28</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 4,44</t>
+          <t>-3,43; 4,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -0,51</t>
+          <t>-7,24; -0,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 0,95</t>
+          <t>-3,88; 1,15</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-34,43%</t>
+          <t>-34,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-13,04%</t>
+          <t>-11,59%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 49,61</t>
+          <t>-25,21; 52,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-56,52; -3,56</t>
+          <t>-56,32; -3,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-32,02; 10,82</t>
+          <t>-30,73; 12,44</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-10,15</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-5,66</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,05; 14,49</t>
+          <t>2,79; 16,61</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5,16; 15,09</t>
+          <t>0,79; 14,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 8,39</t>
+          <t>-4,64; 6,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,65; 11,15</t>
+          <t>-2,8; 9,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 8,44</t>
+          <t>-4,6; 6,97</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 3,94</t>
+          <t>-19,09; -3,64</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,34; 11,52</t>
+          <t>1,63; 10,71</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,29; 9,87</t>
+          <t>0,08; 8,72</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 4,75</t>
+          <t>-13,9; -0,49</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>46,79%</t>
+          <t>48,86%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>51,18%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-0,72%</t>
+          <t>-48,9%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>-28,08%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>18,24; 84,18</t>
+          <t>12,07; 97,22</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>22,74; 86,88</t>
+          <t>2,87; 84,59</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 49,93</t>
+          <t>-20,58; 41,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>11,8; 62,85</t>
+          <t>-12,0; 50,51</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 46,0</t>
+          <t>-20,12; 37,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 20,33</t>
+          <t>-82,28; -17,66</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>20,18; 62,07</t>
+          <t>7,1; 58,65</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>15,07; 54,76</t>
+          <t>0,44; 48,06</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 25,17</t>
+          <t>-64,85; -3,21</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>13,32</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>8,84</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,9</t>
+          <t>1,07; 16,75</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,88</t>
+          <t>5,57; 20,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,42</t>
+          <t>0,91; 14,92</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,66</t>
+          <t>3,12; 17,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,17</t>
+          <t>-1,42; 12,3</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,26</t>
+          <t>3,93; 14,92</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,92</t>
+          <t>4,22; 15,3</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,16</t>
+          <t>3,61; 13,89</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,99</t>
+          <t>4,64; 12,93</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>44,05%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>66,59%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>57,59%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>39,26%</t>
+          <t>50,23%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>45,52%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>47,82%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>44,11%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>37,32%</t>
+          <t>43,71%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>3,43; 104,54</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>21,81; 130,5</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 92,06</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>12,91; 99,16</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-6,12; 71,66</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>15,24; 93,81</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>18,95; 85,38</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>15,29; 79,84</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>19,9; 77,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 2,9</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 3,88</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 3,9</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 3,66</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 3,17</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 1,94</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 2,92</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 3,16</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 2,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>30,81%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>49,63%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>45,97%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>39,26%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>29,12%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>35,3%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>38,76%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>29,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>6,85; 56,89</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>23,48; 77,15</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>31,43; 86,11</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 75,61</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>17,89; 66,88</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>7,87; 56,4</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 40,29</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-8,57; 34,61</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>19,11; 53,55</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>22,47; 57,97</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>21,63; 55,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>9,74; 47,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Edad-trans_camb.xlsx
@@ -685,22 +685,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,06</t>
+          <t>-0,37; 1,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,69</t>
+          <t>-0,4; 0,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 0,0</t>
+          <t>-1,11; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,89</t>
+          <t>0,23; 2,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 1,14</t>
+          <t>0,02; 1,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 0,38</t>
+          <t>-0,2; 0,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 0,53</t>
+          <t>-0,2; 0,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,57</t>
+          <t>0,31; 2,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,68</t>
+          <t>-0,56; 0,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,87</t>
+          <t>-0,48; 1,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,16</t>
+          <t>-0,04; 2,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,95</t>
+          <t>-0,51; 0,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,35</t>
+          <t>-0,84; 0,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,97</t>
+          <t>0,46; 2,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,66</t>
+          <t>-0,33; 0,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,78</t>
+          <t>-0,43; 0,74</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,82; —</t>
+          <t>-66,17; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,8; 2085,11</t>
+          <t>39,6; 2050,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; -0,14</t>
+          <t>-2,56; -0,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 0,87</t>
+          <t>-1,66; 0,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,79</t>
+          <t>-1,36; 1,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,1</t>
+          <t>-0,39; 2,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,25</t>
+          <t>-0,69; 1,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,97</t>
+          <t>-0,93; 1,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,63</t>
+          <t>-1,02; 0,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,75</t>
+          <t>-0,91; 0,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,98</t>
+          <t>-0,7; 1,01</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-91,5; 15,9</t>
+          <t>-94,58; -1,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-72,53; 87,06</t>
+          <t>-72,12; 72,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,01; 178,19</t>
+          <t>-59,39; 152,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,4; 482,16</t>
+          <t>-46,57; 476,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 289,21</t>
+          <t>-59,12; 388,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,82; 229,59</t>
+          <t>-66,57; 280,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,39; 75,81</t>
+          <t>-56,23; 81,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,77; 100,4</t>
+          <t>-53,04; 84,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-46,56; 121,77</t>
+          <t>-43,4; 111,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,31</t>
+          <t>-3,37; 1,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,71</t>
+          <t>-1,55; 3,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,99</t>
+          <t>-3,51; 3,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,25</t>
+          <t>-1,93; 2,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,84</t>
+          <t>-2,3; 1,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 1,14</t>
+          <t>-2,39; 1,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,3</t>
+          <t>-1,96; 1,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,19</t>
+          <t>-1,44; 2,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,49</t>
+          <t>-2,23; 1,45</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 50,03</t>
+          <t>-58,47; 48,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 123,83</t>
+          <t>-28,77; 115,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-64,24; 84,27</t>
+          <t>-60,31; 81,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,11; 98,85</t>
+          <t>-46,76; 111,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,84; 93,66</t>
+          <t>-51,01; 86,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,98; 53,39</t>
+          <t>-50,23; 58,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,53; 43,86</t>
+          <t>-40,51; 39,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 73,15</t>
+          <t>-29,28; 65,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-46,19; 46,87</t>
+          <t>-44,76; 42,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 3,97</t>
+          <t>-4,82; 4,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 5,12</t>
+          <t>-4,02; 4,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 4,73</t>
+          <t>-3,66; 4,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 5,69</t>
+          <t>-2,94; 5,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 5,63</t>
+          <t>-3,15; 5,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,24; -0,35</t>
+          <t>-7,51; -0,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 3,73</t>
+          <t>-2,4; 3,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,36</t>
+          <t>-1,82; 4,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,15</t>
+          <t>-4,25; 1,15</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 41,12</t>
+          <t>-33,95; 47,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 54,45</t>
+          <t>-26,66; 49,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,21; 52,84</t>
+          <t>-24,93; 41,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 68,45</t>
+          <t>-25,05; 70,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 70,44</t>
+          <t>-26,48; 69,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-56,32; -3,38</t>
+          <t>-55,95; -4,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 38,72</t>
+          <t>-19,61; 38,54</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 46,64</t>
+          <t>-14,87; 46,92</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 12,44</t>
+          <t>-32,1; 12,85</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,79; 16,61</t>
+          <t>2,96; 16,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,79; 14,0</t>
+          <t>1,52; 14,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 6,75</t>
+          <t>-4,2; 6,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 9,11</t>
+          <t>-2,92; 9,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 6,97</t>
+          <t>-4,31; 8,4</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-19,09; -3,64</t>
+          <t>-20,08; -3,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,63; 10,71</t>
+          <t>1,93; 11,33</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,08; 8,72</t>
+          <t>-0,3; 8,47</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,9; -0,49</t>
+          <t>-14,88; -0,49</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,07; 97,22</t>
+          <t>12,07; 102,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2,87; 84,59</t>
+          <t>6,78; 88,22</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 41,85</t>
+          <t>-18,24; 41,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 50,51</t>
+          <t>-12,32; 50,73</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 37,75</t>
+          <t>-18,25; 47,19</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-82,28; -17,66</t>
+          <t>-79,99; -15,77</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>7,1; 58,65</t>
+          <t>7,95; 62,31</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,44; 48,06</t>
+          <t>-0,89; 47,27</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-64,85; -3,21</t>
+          <t>-63,33; -2,88</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,07; 16,75</t>
+          <t>1,09; 17,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,57; 20,84</t>
+          <t>5,84; 20,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,91; 14,92</t>
+          <t>1,19; 14,59</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,12; 17,0</t>
+          <t>3,11; 16,35</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 12,3</t>
+          <t>-1,01; 13,45</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,93; 14,92</t>
+          <t>2,9; 14,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,22; 15,3</t>
+          <t>4,57; 15,21</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,61; 13,89</t>
+          <t>3,8; 14,13</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,93</t>
+          <t>4,38; 13,03</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>3,43; 104,54</t>
+          <t>2,7; 108,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>21,81; 130,5</t>
+          <t>22,18; 123,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3,76; 92,06</t>
+          <t>4,29; 87,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>12,91; 99,16</t>
+          <t>12,82; 95,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 71,66</t>
+          <t>-5,55; 80,85</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>15,24; 93,81</t>
+          <t>11,41; 84,89</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,95; 85,38</t>
+          <t>20,15; 85,33</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>15,29; 79,84</t>
+          <t>16,45; 78,93</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>19,9; 77,48</t>
+          <t>18,44; 73,85</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,9</t>
+          <t>0,58; 2,9</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,88</t>
+          <t>1,6; 3,99</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,9</t>
+          <t>0,81; 3,9</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,66</t>
+          <t>1,19; 3,71</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,17</t>
+          <t>0,44; 2,96</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,94</t>
+          <t>-0,65; 1,9</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,92</t>
+          <t>1,21; 2,96</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,16</t>
+          <t>1,46; 3,17</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,57</t>
+          <t>0,6; 2,69</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>6,85; 56,89</t>
+          <t>9,13; 56,54</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>23,48; 77,15</t>
+          <t>24,88; 78,04</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>11,93; 75,61</t>
+          <t>14,5; 75,76</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>17,89; 66,88</t>
+          <t>17,73; 65,63</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7,87; 56,4</t>
+          <t>6,44; 53,84</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 34,61</t>
+          <t>-10,15; 33,87</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>19,11; 53,55</t>
+          <t>18,82; 53,44</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>22,47; 57,97</t>
+          <t>22,72; 58,32</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>9,74; 47,39</t>
+          <t>9,74; 48,69</t>
         </is>
       </c>
     </row>
